--- a/data/Data_App Dashboard.xlsx
+++ b/data/Data_App Dashboard.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\NSS\Projects\app-trader-a_pizza_my_heart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{99C6A144-75B3-4930-B2BD-54438816F290}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A4033-2FBC-40F6-A4B7-5BAD1CB71A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-1614454044891" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="DASHBOARD" sheetId="5" r:id="rId3"/>
     <sheet name="Tot Inc" sheetId="4" r:id="rId4"/>
     <sheet name="Genre Income" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -173,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -494,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -609,6 +610,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -654,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -662,6 +774,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2426,19 +2547,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2937,8 +3046,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2999,6 +3107,114 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="20000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3036,6 +3252,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BB73-4B09-B40A-3FF3732CF8B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3055,6 +3276,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BB73-4B09-B40A-3FF3732CF8B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3074,6 +3300,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BB73-4B09-B40A-3FF3732CF8B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3093,6 +3324,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BB73-4B09-B40A-3FF3732CF8B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3112,6 +3348,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BB73-4B09-B40A-3FF3732CF8B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3131,6 +3372,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BB73-4B09-B40A-3FF3732CF8B3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6059,7 +6305,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="matth" refreshedDate="44254.562051504632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="matth" refreshedDate="44254.562051504632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:M11" sheet="Data Manipulated"/>
   </cacheSource>
@@ -6154,7 +6400,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
   <r>
     <x v="0"/>
     <n v="0"/>
@@ -6309,7 +6555,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -6426,7 +6672,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -6544,9 +6790,9 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of total_net_income" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of total_net_income" fld="12" baseField="7" baseItem="2"/>
   </dataFields>
-  <chartFormats count="21">
+  <chartFormats count="27">
     <chartFormat chart="0" format="67" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6787,7 +7033,109 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6EFB94E8-B8C4-4C2B-A874-78404C106675}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -7096,11 +7444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7577,10 +7925,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8056,7 +8406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8071,7 +8421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8188,11 +8538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8289,4 +8639,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4AA1A8-D225-48C7-8665-CFDDBD82236F}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>